--- a/test-data/test/7월_용역자명단_간단.xlsx
+++ b/test-data/test/7월_용역자명단_간단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.56.104\tyranno_home\project\bill\nanumpay\test-data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D6C9F5-ED18-4C5D-B988-1CDE12DA4F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1396D-5328-459F-BA26-1BD8C12AB2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="2700" windowWidth="19590" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1275" windowWidth="22140" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>순번</t>
   </si>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>설계사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계사 계좌번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -459,16 +467,17 @@
     <col min="3" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,31 +500,37 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -537,23 +552,29 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -575,23 +596,29 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -613,20 +640,26 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
-        <v>18</v>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/test/7월_용역자명단_간단.xlsx
+++ b/test-data/test/7월_용역자명단_간단.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.56.104\tyranno_home\project\bill\nanumpay\test-data\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.123.146\doowon_home\project\my\nanumpay\test-data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1396D-5328-459F-BA26-1BD8C12AB2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE83AB2-1017-49B4-A73F-63D31363E79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1275" windowWidth="22140" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="2190" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>순번</t>
   </si>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>설계사 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계사 은행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,12 +476,12 @@
     <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.375" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,19 +522,22 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -570,11 +577,11 @@
       <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -614,11 +621,11 @@
       <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -658,7 +665,7 @@
       <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>16</v>
       </c>
     </row>
